--- a/data/trans_orig/CONS_COR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COR-Edad-trans_orig.xlsx
@@ -740,12 +740,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -755,12 +755,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62496</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68831</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>231470</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>226511</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6714,97 +6714,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1196</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>1207</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>1204</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6827,12 +6827,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>168975</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -6842,12 +6842,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -6862,12 +6862,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>169235</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -6877,12 +6877,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -6897,12 +6897,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>339409</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -6912,12 +6912,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7057,12 +7057,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -7170,12 +7170,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>181007</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -7185,12 +7185,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_COR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COR-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en País Vasco</t>
+          <t>Consumo de medicamentos para el corazón en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en Andalucia</t>
+          <t>Consumo de medicamentos para el corazón en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en C.Valenciana</t>
+          <t>Consumo de medicamentos para el corazón en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_COR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COR-Edad-trans_orig.xlsx
@@ -770,7 +770,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -780,12 +780,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>416</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>81</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>491</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -883,27 +883,27 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62358</t>
+          <t>66161</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61678</t>
+          <t>65826</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,78%</t>
+          <t>99,88%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -918,27 +918,27 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>125174</t>
+          <t>143042</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>124631</t>
+          <t>142632</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,89%</t>
+          <t>99,94%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>99,66%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>159</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>903</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>159</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>809</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,57%</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1226,27 +1226,27 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>62355</t>
+          <t>67889</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>61724</t>
+          <t>67145</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,8%</t>
+          <t>99,77%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -1261,27 +1261,27 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>131519</t>
+          <t>142872</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>130933</t>
+          <t>142222</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>99,89%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>825</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>260</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>2127</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>824</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>165</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>2086</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>739</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>2545</t>
+          <t>3347</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93973</t>
+          <t>103135</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92733</t>
+          <t>101833</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94430</t>
+          <t>103700</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96870</t>
+          <t>109891</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>95904</t>
+          <t>108629</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>97325</t>
+          <t>110550</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,35%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,82%</t>
+          <t>99,85%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>190843</t>
+          <t>213026</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>189655</t>
+          <t>211328</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>191584</t>
+          <t>213936</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>99,66%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>4898</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2977</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6505</t>
+          <t>7167</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>936</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>376</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>5586</t>
+          <t>5834</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>3914</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>7935</t>
+          <t>7983</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,68%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>134978</t>
+          <t>139880</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>132909</t>
+          <t>137611</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>136437</t>
+          <t>141479</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>136825</t>
+          <t>151608</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>135554</t>
+          <t>150657</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>137500</t>
+          <t>152168</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>98,76%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>271804</t>
+          <t>291487</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>269455</t>
+          <t>289338</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>273476</t>
+          <t>293373</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>98,67%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12854</t>
+          <t>11888</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10004</t>
+          <t>9425</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16495</t>
+          <t>15218</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5057</t>
+          <t>5676</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>16115</t>
+          <t>15448</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12934</t>
+          <t>12499</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>20408</t>
+          <t>19248</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,84%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>114000</t>
+          <t>117694</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>110359</t>
+          <t>114364</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>116850</t>
+          <t>120157</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>87,0%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,11%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>144081</t>
+          <t>148355</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>142284</t>
+          <t>146239</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>145353</t>
+          <t>149851</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>258079</t>
+          <t>266050</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>253786</t>
+          <t>262250</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>261260</t>
+          <t>268999</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>95,56%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>18483</t>
+          <t>18670</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15244</t>
+          <t>15394</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22360</t>
+          <t>22242</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9624</t>
+          <t>10243</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7418</t>
+          <t>7836</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12200</t>
+          <t>13133</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>28107</t>
+          <t>28914</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>24207</t>
+          <t>24563</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>32455</t>
+          <t>33503</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>15,21%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>89121</t>
+          <t>85796</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>85244</t>
+          <t>82224</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>92360</t>
+          <t>89072</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>82,82%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>79,22%</t>
+          <t>78,71%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>85,83%</t>
+          <t>85,26%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>105284</t>
+          <t>105537</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>102708</t>
+          <t>102647</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>107490</t>
+          <t>107944</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>88,66%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>194405</t>
+          <t>191332</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>190057</t>
+          <t>186743</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>198305</t>
+          <t>195683</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>85,41%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>89,12%</t>
+          <t>88,85%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27561</t>
+          <t>25903</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>23483</t>
+          <t>22688</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>31603</t>
+          <t>29883</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,17 +2828,17 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>28988</t>
+          <t>28637</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>25204</t>
+          <t>24904</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>33544</t>
+          <t>32703</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>56548</t>
+          <t>54541</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>51343</t>
+          <t>49297</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>61969</t>
+          <t>59946</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>27,06%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>68794</t>
+          <t>63320</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>64752</t>
+          <t>59340</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>72872</t>
+          <t>66535</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>71,4%</t>
+          <t>70,97%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>67,2%</t>
+          <t>66,51%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>75,63%</t>
+          <t>74,57%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,17 +2941,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>104943</t>
+          <t>103675</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>100387</t>
+          <t>99609</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>108727</t>
+          <t>107408</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>74,95%</t>
+          <t>75,28%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>173738</t>
+          <t>166994</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>168317</t>
+          <t>161589</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>178943</t>
+          <t>172238</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>75,44%</t>
+          <t>75,38%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>73,09%</t>
+          <t>72,94%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>77,7%</t>
+          <t>77,75%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>64057</t>
+          <t>62186</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>57872</t>
+          <t>55633</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>71037</t>
+          <t>68571</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,32 +3171,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>43920</t>
+          <t>44441</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>38287</t>
+          <t>39474</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>49554</t>
+          <t>50938</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>107977</t>
+          <t>106627</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>99206</t>
+          <t>98181</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>117057</t>
+          <t>116265</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>7,64%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>632846</t>
+          <t>661686</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>625866</t>
+          <t>655301</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>639031</t>
+          <t>668239</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>712715</t>
+          <t>753115</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>707081</t>
+          <t>746618</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>718348</t>
+          <t>758082</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3319,32 +3319,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1345561</t>
+          <t>1414802</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1336481</t>
+          <t>1405164</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1354332</t>
+          <t>1423248</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>93,55%</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13343</t>
+          <t>15748</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>14348</t>
+          <t>15411</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>171010</t>
+          <t>168605</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>92,76%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>406241</t>
+          <t>405178</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10738</t>
+          <t>9694</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>8374</t>
+          <t>9945</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>303690</t>
+          <t>304734</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>535422</t>
+          <t>533851</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10230</t>
+          <t>11421</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>925</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7205</t>
+          <t>7477</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>2843</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>13792</t>
+          <t>13645</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>300539</t>
+          <t>299348</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>309755</t>
+          <t>309724</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>96,33%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>99,66%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>315408</t>
+          <t>315136</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>321581</t>
+          <t>321688</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,77%</t>
+          <t>97,68%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>619589</t>
+          <t>619736</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>630401</t>
+          <t>630538</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>99,55%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3831</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30976</t>
+          <t>30129</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2414</t>
+          <t>2555</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9309</t>
+          <t>9995</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>8762</t>
+          <t>9443</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>32579</t>
+          <t>33100</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>596188</t>
+          <t>597035</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>623333</t>
+          <t>623006</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>99,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>395493</t>
+          <t>394807</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>402388</t>
+          <t>402247</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>999387</t>
+          <t>998866</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1023204</t>
+          <t>1022523</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>99,08%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18011</t>
+          <t>17816</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35941</t>
+          <t>36503</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>11239</t>
+          <t>10752</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>22926</t>
+          <t>22712</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>31795</t>
+          <t>32197</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>53839</t>
+          <t>53124</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,07%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>303188</t>
+          <t>302626</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>321118</t>
+          <t>321313</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>89,24%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>295968</t>
+          <t>296182</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>307655</t>
+          <t>308142</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>604185</t>
+          <t>604900</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>626229</t>
+          <t>625827</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>91,82%</t>
+          <t>91,93%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>95,11%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21091</t>
+          <t>21098</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>37837</t>
+          <t>36783</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5434</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>35207</t>
+          <t>35935</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>20449</t>
+          <t>19222</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>71815</t>
+          <t>72811</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>11,02%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>170247</t>
+          <t>171301</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>186993</t>
+          <t>186986</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>81,82%</t>
+          <t>82,32%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>417435</t>
+          <t>416707</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>447208</t>
+          <t>448083</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>92,06%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>588912</t>
+          <t>587916</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>640278</t>
+          <t>641505</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>97,09%</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>29803</t>
+          <t>28700</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>46256</t>
+          <t>45649</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>40702</t>
+          <t>41699</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>59686</t>
+          <t>60079</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>75647</t>
+          <t>75324</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>99286</t>
+          <t>101181</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>26,26%</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>105519</t>
+          <t>106126</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>121972</t>
+          <t>123075</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>69,52%</t>
+          <t>69,92%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>80,36%</t>
+          <t>81,09%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>173918</t>
+          <t>173525</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>192902</t>
+          <t>191905</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>74,45%</t>
+          <t>74,28%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>82,58%</t>
+          <t>82,15%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>286093</t>
+          <t>284198</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>309732</t>
+          <t>310055</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>74,24%</t>
+          <t>73,74%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>80,37%</t>
+          <t>80,45%</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>75393</t>
+          <t>75301</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>135140</t>
+          <t>133209</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>71815</t>
+          <t>70447</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>117977</t>
+          <t>116420</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>166744</t>
+          <t>161518</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>246959</t>
+          <t>241366</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1967385</t>
+          <t>1969316</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2027132</t>
+          <t>2027224</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2113359</t>
+          <t>2114916</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2159521</t>
+          <t>2160889</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4086902</t>
+          <t>4092495</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4167117</t>
+          <t>4172343</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6326,12 +6326,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>96,27%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_COR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COR-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el corazón en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -780,12 +780,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>17286</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>17644</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>3,83%</t>
         </is>
       </c>
     </row>
@@ -843,12 +843,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -878,32 +878,32 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66161</t>
+          <t>216574</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65826</t>
+          <t>202369</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>92,13%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>143042</t>
+          <t>457839</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>142632</t>
+          <t>443276</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,94%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
@@ -1138,17 +1138,17 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>7045</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>1,29%</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1221,32 +1221,32 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>247</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>67889</t>
+          <t>281489</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>67145</t>
+          <t>277357</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,77%</t>
+          <t>99,31%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -1256,32 +1256,32 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>400</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>142872</t>
+          <t>543462</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>142222</t>
+          <t>538381</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,89%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3797</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1154</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11262</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>825</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2127</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,79%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,05%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>1434</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>8689</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>1649</t>
+          <t>7417</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>3380</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>3347</t>
+          <t>14203</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>103135</t>
+          <t>364521</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>101833</t>
+          <t>357056</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>103700</t>
+          <t>367164</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>98,97%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>488</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>109891</t>
+          <t>369766</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>108629</t>
+          <t>364696</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>110550</t>
+          <t>371951</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,85%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>213026</t>
+          <t>734286</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>211328</t>
+          <t>727500</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>213936</t>
+          <t>738323</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>99,54%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4898</t>
+          <t>16193</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>9088</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7167</t>
+          <t>25938</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>6499</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>11680</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>5834</t>
+          <t>22692</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>3948</t>
+          <t>15470</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>7983</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>139880</t>
+          <t>407748</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>137611</t>
+          <t>398003</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>141479</t>
+          <t>414853</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,72%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>650</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>151608</t>
+          <t>434793</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>150657</t>
+          <t>429612</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>152168</t>
+          <t>438049</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1578</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>291487</t>
+          <t>842542</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>289338</t>
+          <t>831554</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>293373</t>
+          <t>849764</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>98,21%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11888</t>
+          <t>27411</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9425</t>
+          <t>19522</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15218</t>
+          <t>38823</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3560</t>
+          <t>18369</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>12196</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5676</t>
+          <t>25664</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>15448</t>
+          <t>45780</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12499</t>
+          <t>35101</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>19248</t>
+          <t>57396</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>117694</t>
+          <t>340632</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>114364</t>
+          <t>329220</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>120157</t>
+          <t>348521</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>92,55%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>89,45%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>538</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>148355</t>
+          <t>341997</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>146239</t>
+          <t>334702</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>149851</t>
+          <t>348170</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>94,9%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>905</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>266050</t>
+          <t>682628</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>262250</t>
+          <t>671012</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>268999</t>
+          <t>693307</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,18%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>18670</t>
+          <t>30796</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15394</t>
+          <t>22289</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22242</t>
+          <t>39215</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10243</t>
+          <t>20471</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7836</t>
+          <t>14815</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13133</t>
+          <t>28162</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>28914</t>
+          <t>51267</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>24563</t>
+          <t>41261</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>33503</t>
+          <t>63904</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>12,75%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>273</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>85796</t>
+          <t>200477</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>82224</t>
+          <t>192058</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>89072</t>
+          <t>208984</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>82,13%</t>
+          <t>86,68%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>78,71%</t>
+          <t>83,04%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>85,26%</t>
+          <t>90,36%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>446</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>105537</t>
+          <t>249561</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>102647</t>
+          <t>241870</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>255217</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,66%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>719</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>191332</t>
+          <t>450037</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>186743</t>
+          <t>437400</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>195683</t>
+          <t>460043</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>86,87%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>84,79%</t>
+          <t>87,25%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>88,85%</t>
+          <t>91,77%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>25903</t>
+          <t>41819</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22688</t>
+          <t>32883</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29883</t>
+          <t>51227</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>30,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>28637</t>
+          <t>56297</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>24904</t>
+          <t>46893</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>32703</t>
+          <t>67844</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>154</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>54541</t>
+          <t>98117</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>49297</t>
+          <t>85528</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>59946</t>
+          <t>114429</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>27,1%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>63320</t>
+          <t>123762</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>59340</t>
+          <t>114354</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>66535</t>
+          <t>132698</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>70,97%</t>
+          <t>74,74%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>66,51%</t>
+          <t>69,06%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>74,57%</t>
+          <t>80,14%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>347</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>103675</t>
+          <t>200310</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>99609</t>
+          <t>188763</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>107408</t>
+          <t>209714</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>78,36%</t>
+          <t>78,06%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>75,28%</t>
+          <t>73,56%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>81,18%</t>
+          <t>81,73%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>518</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>166994</t>
+          <t>324071</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>161589</t>
+          <t>307759</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>172238</t>
+          <t>336660</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>75,38%</t>
+          <t>76,76%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>72,94%</t>
+          <t>72,9%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>77,75%</t>
+          <t>79,74%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>672</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>62186</t>
+          <t>120017</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>55633</t>
+          <t>102150</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>68571</t>
+          <t>138667</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>176</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>44441</t>
+          <t>110301</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>39474</t>
+          <t>96394</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>50938</t>
+          <t>129092</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>329</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>106627</t>
+          <t>230318</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>98181</t>
+          <t>205257</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>116265</t>
+          <t>256458</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>6,01%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>1743</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>661686</t>
+          <t>1940378</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>655301</t>
+          <t>1921728</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>668239</t>
+          <t>1958245</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>90,53%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4207</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>753115</t>
+          <t>2094489</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>746618</t>
+          <t>2075698</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>758082</t>
+          <t>2108396</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>7908</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1414802</t>
+          <t>4034867</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1405164</t>
+          <t>4008727</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1423248</t>
+          <t>4059928</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>95,19%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4905</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para el corazón en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3752,72 +3752,72 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2677</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>15748</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>8,54%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>2677</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>15411</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -3865,72 +3865,72 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>181676</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>168605</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>340613</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>417912</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>405178</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>420589</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>99,36%</t>
-        </is>
-      </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2484</t>
+          <t>848</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -4110,12 +4110,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9694</t>
+          <t>3209</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>2484</t>
+          <t>848</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
@@ -4145,12 +4145,12 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>9945</t>
+          <t>2908</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,74%</t>
         </is>
       </c>
     </row>
@@ -4173,12 +4173,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -4208,32 +4208,32 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>313</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>311944</t>
+          <t>210630</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>304734</t>
+          <t>208269</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -4243,32 +4243,32 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>602</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>541312</t>
+          <t>392842</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>533851</t>
+          <t>390782</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>99,78%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>604</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3762</t>
+          <t>457</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11421</t>
+          <t>2579</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3018</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>1288</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7477</t>
+          <t>8477</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6781</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>13645</t>
+          <t>9074</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>391</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>307007</t>
+          <t>247856</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>299348</t>
+          <t>245734</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>309724</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>99,82%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>98,96%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>400</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>319595</t>
+          <t>244977</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>315136</t>
+          <t>240174</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>321688</t>
+          <t>247363</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,68%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>99,48%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>791</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>626600</t>
+          <t>492833</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>619736</t>
+          <t>487890</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>630538</t>
+          <t>495112</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>99,63%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15585</t>
+          <t>4878</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4158</t>
+          <t>2262</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30129</t>
+          <t>9888</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5281</t>
+          <t>3326</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>954</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9995</t>
+          <t>8648</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>20865</t>
+          <t>8204</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>9443</t>
+          <t>4503</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>33100</t>
+          <t>14675</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>2,55%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>476</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>611579</t>
+          <t>292129</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>597035</t>
+          <t>287119</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>623006</t>
+          <t>294745</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>452</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>399521</t>
+          <t>275649</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>394807</t>
+          <t>270327</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>402247</t>
+          <t>278021</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,66%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>928</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1011101</t>
+          <t>567779</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>998866</t>
+          <t>561308</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1022523</t>
+          <t>571480</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>98,58%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>99,22%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5094,102 +5094,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25737</t>
+          <t>18322</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17816</t>
+          <t>12898</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>36503</t>
+          <t>25718</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9796</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5722</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>16135</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>28118</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>21228</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>37112</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
           <t>7,59%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>10,76%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>16179</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>10752</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>22712</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>5,07%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>3,37%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>7,12%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>41916</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>32197</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>53124</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
-      <c r="V16" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
-      <c r="W16" s="2" t="inlineStr">
-        <is>
-          <t>8,07%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>313392</t>
+          <t>216378</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>302626</t>
+          <t>208982</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>321313</t>
+          <t>221802</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>92,19%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>89,04%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>94,5%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>244300</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>237961</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>248374</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>96,14%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>93,65%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>97,75%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>460678</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>451684</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>467568</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>94,25%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
           <t>92,41%</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>89,24%</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>94,75%</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>538</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>302715</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>296182</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>308142</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>94,93%</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>92,88%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>96,63%</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>905</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>616108</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>604900</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>625827</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>93,63%</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="inlineStr">
-        <is>
-          <t>91,93%</t>
-        </is>
-      </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>95,66%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28860</t>
+          <t>27599</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21098</t>
+          <t>22285</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36783</t>
+          <t>33626</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17745</t>
+          <t>16574</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4559</t>
+          <t>12407</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>35935</t>
+          <t>21464</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>133</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>46605</t>
+          <t>44173</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>19222</t>
+          <t>37046</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>72811</t>
+          <t>52749</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>14,15%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>179224</t>
+          <t>156449</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>171301</t>
+          <t>150422</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>186986</t>
+          <t>161763</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>86,13%</t>
+          <t>85,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>81,73%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>89,86%</t>
+          <t>87,89%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>434897</t>
+          <t>172100</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>416707</t>
+          <t>167210</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>448083</t>
+          <t>176267</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>88,62%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>923</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>614122</t>
+          <t>328550</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>587916</t>
+          <t>319974</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>641505</t>
+          <t>335677</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,98%</t>
+          <t>85,85%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>90,06%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>486</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5775,107 +5775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>36831</t>
+          <t>37526</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28700</t>
+          <t>32131</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>45649</t>
+          <t>44218</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>50072</t>
+          <t>54010</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>41699</t>
+          <t>46450</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>60079</t>
+          <t>62914</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>268</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>86903</t>
+          <t>91536</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>75324</t>
+          <t>81753</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>101181</t>
+          <t>101581</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>25,52%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>28,32%</t>
         </is>
       </c>
     </row>
@@ -5888,107 +5888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>114944</t>
+          <t>109007</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>106126</t>
+          <t>102315</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>123075</t>
+          <t>114402</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>75,73%</t>
+          <t>74,39%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>69,92%</t>
+          <t>69,82%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>81,09%</t>
+          <t>78,07%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>391</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>183532</t>
+          <t>158113</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>173525</t>
+          <t>149209</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>191905</t>
+          <t>165673</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>78,57%</t>
+          <t>74,54%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>74,28%</t>
+          <t>70,34%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>82,15%</t>
+          <t>78,1%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>742</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>298476</t>
+          <t>267120</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>284198</t>
+          <t>257075</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>310055</t>
+          <t>276903</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>77,45%</t>
+          <t>74,48%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>71,68%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>80,45%</t>
+          <t>77,21%</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>529</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>212123</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>212123</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>212123</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6071,22 +6071,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358656</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358656</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358656</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6118,107 +6118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>110776</t>
+          <t>88782</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>75301</t>
+          <t>77924</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>133209</t>
+          <t>102049</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>97456</t>
+          <t>88228</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>70447</t>
+          <t>76575</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>116420</t>
+          <t>101212</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>471</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>208232</t>
+          <t>177010</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>161518</t>
+          <t>161849</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>241366</t>
+          <t>196307</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -6231,107 +6231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1743</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1991749</t>
+          <t>1374204</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1969316</t>
+          <t>1360937</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2027224</t>
+          <t>1385062</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2833</t>
+          <t>2669</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2133880</t>
+          <t>1476211</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2114916</t>
+          <t>1463227</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2160889</t>
+          <t>1487864</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4576</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4125629</t>
+          <t>2850415</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4092495</t>
+          <t>2831118</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4172343</t>
+          <t>2865576</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>94,65%</t>
         </is>
       </c>
     </row>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564439</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564439</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564439</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4905</t>
+          <t>5740</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027425</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027425</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027425</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en C.Valenciana (tasa de respuesta: 99,76%)</t>
+          <t>Consumo de medicamentos para el corazón en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6739,72 +6739,72 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,12%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,06%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -6817,12 +6817,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -6852,72 +6852,72 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>347</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66161</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>65826</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
+          <t>99,88%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>99,37%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>723</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143042</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>142632</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
+          <t>99,94%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>99,66%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>159</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -7097,12 +7097,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>903</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
@@ -7112,17 +7112,17 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>159</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
@@ -7132,12 +7132,12 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2908</t>
+          <t>809</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,57%</t>
         </is>
       </c>
     </row>
@@ -7160,12 +7160,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -7195,32 +7195,32 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>366</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>210630</t>
+          <t>67889</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>208269</t>
+          <t>67145</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,77%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -7230,32 +7230,32 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>763</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>392842</t>
+          <t>142872</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>390782</t>
+          <t>142222</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,78%</t>
+          <t>99,89%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7390,107 +7390,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>825</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>260</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>2127</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3674</t>
+          <t>824</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>165</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8477</t>
+          <t>2086</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>4131</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>739</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9074</t>
+          <t>3347</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -7503,107 +7503,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>247856</t>
+          <t>103135</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>245734</t>
+          <t>101833</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103700</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,82%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>576</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>244977</t>
+          <t>109891</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>240174</t>
+          <t>108629</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>247363</t>
+          <t>110550</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>99,85%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>492833</t>
+          <t>213026</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>487890</t>
+          <t>211328</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>495112</t>
+          <t>213936</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>99,66%</t>
         </is>
       </c>
     </row>
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7733,107 +7733,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4878</t>
+          <t>4898</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2262</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9888</t>
+          <t>7167</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3326</t>
+          <t>936</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>376</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8648</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>37</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>8204</t>
+          <t>5834</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>4503</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>14675</t>
+          <t>7983</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,68%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>773</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>292129</t>
+          <t>139880</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>287119</t>
+          <t>137611</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>294745</t>
+          <t>141479</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>805</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>275649</t>
+          <t>151608</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>270327</t>
+          <t>150657</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>278021</t>
+          <t>152168</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>98,76%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>1578</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>567779</t>
+          <t>291487</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>561308</t>
+          <t>289338</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>571480</t>
+          <t>293373</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>98,67%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,107 +8076,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18322</t>
+          <t>11888</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12898</t>
+          <t>9425</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>25718</t>
+          <t>15218</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9796</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5722</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>16135</t>
+          <t>5676</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>28118</t>
+          <t>15448</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>21228</t>
+          <t>12499</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>37112</t>
+          <t>19248</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>6,84%</t>
         </is>
       </c>
     </row>
@@ -8189,107 +8189,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>664</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>216378</t>
+          <t>117694</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>114364</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>221802</t>
+          <t>120157</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>839</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>244300</t>
+          <t>148355</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>237961</t>
+          <t>146239</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>248374</t>
+          <t>149851</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>460678</t>
+          <t>266050</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>451684</t>
+          <t>262250</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>467568</t>
+          <t>268999</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>95,56%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8419,107 +8419,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27599</t>
+          <t>18670</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22285</t>
+          <t>15394</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>33626</t>
+          <t>22242</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16574</t>
+          <t>10243</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12407</t>
+          <t>7836</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>21464</t>
+          <t>13133</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>174</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>44173</t>
+          <t>28914</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>37046</t>
+          <t>24563</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>52749</t>
+          <t>33503</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>15,21%</t>
         </is>
       </c>
     </row>
@@ -8532,107 +8532,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>534</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>156449</t>
+          <t>85796</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>150422</t>
+          <t>82224</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>161763</t>
+          <t>89072</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>85,0%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>81,73%</t>
+          <t>78,71%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>87,89%</t>
+          <t>85,26%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>641</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>172100</t>
+          <t>105537</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>167210</t>
+          <t>102647</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>176267</t>
+          <t>107944</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,62%</t>
+          <t>88,66%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>328550</t>
+          <t>191332</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>319974</t>
+          <t>186743</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>335677</t>
+          <t>195683</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>85,85%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>88,85%</t>
         </is>
       </c>
     </row>
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,107 +8762,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>37526</t>
+          <t>25903</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>32131</t>
+          <t>22688</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>44218</t>
+          <t>29883</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>173</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>54010</t>
+          <t>28637</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>46450</t>
+          <t>24904</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>62914</t>
+          <t>32703</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>334</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>91536</t>
+          <t>54541</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>81753</t>
+          <t>49297</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>101581</t>
+          <t>59946</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>27,06%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>394</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>109007</t>
+          <t>63320</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>102315</t>
+          <t>59340</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>114402</t>
+          <t>66535</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>74,39%</t>
+          <t>70,97%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>69,82%</t>
+          <t>66,51%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>78,07%</t>
+          <t>74,57%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>633</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>158113</t>
+          <t>103675</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>149209</t>
+          <t>99609</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>165673</t>
+          <t>107408</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>74,54%</t>
+          <t>78,36%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>70,34%</t>
+          <t>75,28%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>78,1%</t>
+          <t>81,18%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>1027</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>267120</t>
+          <t>166994</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>257075</t>
+          <t>161589</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>276903</t>
+          <t>172238</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>75,38%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>71,68%</t>
+          <t>72,94%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>77,21%</t>
+          <t>77,75%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>212123</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>212123</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>212123</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>358656</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>358656</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>358656</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>88782</t>
+          <t>62186</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>77924</t>
+          <t>55633</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>102049</t>
+          <t>68571</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>268</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>88228</t>
+          <t>44441</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>76575</t>
+          <t>39474</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>101212</t>
+          <t>50938</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>645</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>177010</t>
+          <t>106627</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>161849</t>
+          <t>98181</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>196307</t>
+          <t>116265</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>7,64%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1374204</t>
+          <t>661686</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1360937</t>
+          <t>655301</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1385062</t>
+          <t>668239</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>4207</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1476211</t>
+          <t>753115</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1463227</t>
+          <t>746618</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1487864</t>
+          <t>758082</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>94,36%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>7908</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2850415</t>
+          <t>1414802</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2831118</t>
+          <t>1405164</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2865576</t>
+          <t>1423248</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>93,55%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564439</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564439</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564439</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5740</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3027425</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3027425</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3027425</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
